--- a/public/sample_uploads/fund_ratios/capital_commitments.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_commitments.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b9b322f8db0eee2/Desktop/Ausang/AltConnects/Demo Inc Formats/Demo fund info/Ratios fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{0EF4E5D8-1EAE-4509-85EB-BD88F86A5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C29A90-FBD4-4336-A3E5-2F446E67CCBB}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C11C26EA-BCA3-453A-A576-E6D88A60EB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC8F6511-2ACE-40E1-AA8F-3C976372ED5D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalCommitment" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CapitalCommitment!$A$1:$S$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -454,7 +457,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -463,7 +466,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 -Mandatory
@@ -511,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t>Investor *</t>
   </si>
@@ -579,29 +582,68 @@
     <t>Committed Amount (Fund Currency)</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Investor 37</t>
-  </si>
-  <si>
-    <t>FX-001</t>
-  </si>
-  <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Fund X</t>
+    <t>TSTF11</t>
+  </si>
+  <si>
+    <t>TSTF12</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>TSTF1</t>
+  </si>
+  <si>
+    <t>TSTF2</t>
+  </si>
+  <si>
+    <t>Demo Fund 1</t>
+  </si>
+  <si>
+    <t>TSTF7</t>
+  </si>
+  <si>
+    <t>TSTF8</t>
+  </si>
+  <si>
+    <t>TSTF9</t>
+  </si>
+  <si>
+    <t>TSTF10</t>
+  </si>
+  <si>
+    <t>TSTF13</t>
+  </si>
+  <si>
+    <t>TSTF14</t>
+  </si>
+  <si>
+    <t>TSTF15</t>
+  </si>
+  <si>
+    <t>TSTF16</t>
+  </si>
+  <si>
+    <t>TSTF17</t>
+  </si>
+  <si>
+    <t>TSTF18</t>
+  </si>
+  <si>
+    <t>TSTF19</t>
+  </si>
+  <si>
+    <t>TSTF110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -644,6 +686,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -655,6 +710,11 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,21 +750,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -727,9 +789,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -767,7 +829,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -873,7 +935,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,34 +1085,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:XFD15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.3125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.3125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,25 +1171,25 @@
       </c>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>1000000</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -1133,33 +1197,36 @@
       <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9">
-        <v>44805</v>
-      </c>
-      <c r="L2" s="5"/>
+      <c r="K2" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>500000</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
@@ -1167,157 +1234,479 @@
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="9">
-        <v>44713</v>
-      </c>
-      <c r="L3" s="5"/>
+      <c r="K3" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="Q3" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="J5"/>
-      <c r="K5"/>
+    <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="Q4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="10">
+        <v>45017</v>
+      </c>
       <c r="L5" s="6"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" s="8"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" s="8"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10" s="8"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:19" ht="14" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="Q5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="Q6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="Q7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="Q8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="Q9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="Q10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="10">
+        <v>45017</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="Q11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" s="7"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" s="9"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" s="9"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" s="9"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" s="9"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{21AA2D3E-6E60-4513-9535-8648FB8F7297}">
       <formula1>"Yes,No"</formula1>

--- a/public/sample_uploads/fund_ratios/capital_commitments.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_commitments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C11C26EA-BCA3-453A-A576-E6D88A60EB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC8F6511-2ACE-40E1-AA8F-3C976372ED5D}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C11C26EA-BCA3-453A-A576-E6D88A60EB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E6ED7C-87BC-4934-8AE9-D45E15EC54E3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CapitalCommitment" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CapitalCommitment!$A$1:$S$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CapitalCommitment!$A$1:$S$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Investor *</t>
   </si>
@@ -582,10 +582,13 @@
     <t>Committed Amount (Fund Currency)</t>
   </si>
   <si>
-    <t>TSTF11</t>
-  </si>
-  <si>
-    <t>TSTF12</t>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>TSTF21</t>
+  </si>
+  <si>
+    <t>TSTF22</t>
   </si>
   <si>
     <t>A1</t>
@@ -594,56 +597,20 @@
     <t>A2</t>
   </si>
   <si>
-    <t>TSTF1</t>
-  </si>
-  <si>
-    <t>TSTF2</t>
-  </si>
-  <si>
-    <t>Demo Fund 1</t>
-  </si>
-  <si>
-    <t>TSTF7</t>
-  </si>
-  <si>
-    <t>TSTF8</t>
-  </si>
-  <si>
-    <t>TSTF9</t>
-  </si>
-  <si>
-    <t>TSTF10</t>
-  </si>
-  <si>
-    <t>TSTF13</t>
-  </si>
-  <si>
-    <t>TSTF14</t>
-  </si>
-  <si>
-    <t>TSTF15</t>
-  </si>
-  <si>
-    <t>TSTF16</t>
-  </si>
-  <si>
-    <t>TSTF17</t>
-  </si>
-  <si>
-    <t>TSTF18</t>
-  </si>
-  <si>
-    <t>TSTF19</t>
-  </si>
-  <si>
-    <t>TSTF110</t>
+    <t>TSTF3</t>
+  </si>
+  <si>
+    <t>TSTF4</t>
+  </si>
+  <si>
+    <t>Demo Fund 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -705,13 +672,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="1"/>
@@ -750,7 +710,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,14 +719,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1085,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1173,10 +1132,10 @@
     </row>
     <row r="2" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5">
         <v>500000000</v>
@@ -1186,10 +1145,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -1197,12 +1156,11 @@
       <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>45017</v>
       </c>
-      <c r="L2" s="6"/>
       <c r="Q2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>14</v>
@@ -1210,23 +1168,25 @@
     </row>
     <row r="3" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5">
+        <v>12500000</v>
+      </c>
+      <c r="D3" s="5">
         <v>1000000000</v>
       </c>
-      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
@@ -1234,479 +1194,183 @@
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>45017</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5">
-        <v>500000000</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="10">
-        <v>45017</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="Q4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="10">
-        <v>45017</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5" s="6"/>
-      <c r="Q5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5">
-        <v>500000000</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="10">
-        <v>45017</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="Q6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="8"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="10">
-        <v>45017</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="Q7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" s="8"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5">
-        <v>500000000</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="10">
-        <v>45017</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="Q8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="10">
-        <v>45017</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="Q9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5">
-        <v>500000000</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="10">
-        <v>45017</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="Q10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" s="8"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="10">
-        <v>45017</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="Q11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" s="8"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="D13"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" s="7"/>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" s="9"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15" s="9"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18" s="9"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19" s="9"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{21AA2D3E-6E60-4513-9535-8648FB8F7297}">
       <formula1>"Yes,No"</formula1>
